--- a/New Dataset HistogramxFeature/Experiment result NCC with feature/Sit Long/EER All Average Accuracy Experiment result NCC with feature.xlsx
+++ b/New Dataset HistogramxFeature/Experiment result NCC with feature/Sit Long/EER All Average Accuracy Experiment result NCC with feature.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20350"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20351"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab\Mobile Authentication\New Dataset HistogramxFeature\Experiment result NCC with feature\Sit Long\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52EDC68-DDAD-408B-A8A2-C7221A3DFEDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D0DCDF-D528-4B65-BC4F-AC43A0198350}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="8190" activeTab="1" xr2:uid="{B1C9A965-B810-4DC4-8813-28C4C5BB5E1F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" activeTab="1" xr2:uid="{BE8068D7-38F7-44B2-8BFD-3D2F887A34F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -371,7 +371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41BF2954-E426-44FA-BD27-A5B0333C966A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D46645-A1B5-4D8D-975C-BBA5AF4BFB89}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -383,7 +383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9009EC1-8FE0-44CD-A46A-35B0544BF9B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D896F517-50E0-458C-980B-0193CDF69E6C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -392,7 +392,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
     </row>
   </sheetData>

--- a/New Dataset HistogramxFeature/Experiment result NCC with feature/Sit Long/EER All Average Accuracy Experiment result NCC with feature.xlsx
+++ b/New Dataset HistogramxFeature/Experiment result NCC with feature/Sit Long/EER All Average Accuracy Experiment result NCC with feature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab\Mobile Authentication\New Dataset HistogramxFeature\Experiment result NCC with feature\Sit Long\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D0DCDF-D528-4B65-BC4F-AC43A0198350}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C3005D-5EFF-4CC9-945D-F548594408C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" activeTab="1" xr2:uid="{BE8068D7-38F7-44B2-8BFD-3D2F887A34F7}"/>
   </bookViews>
@@ -392,7 +392,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.76744186046511631</v>
+        <v>0.79396899224806194</v>
       </c>
     </row>
   </sheetData>

--- a/New Dataset HistogramxFeature/Experiment result NCC with feature/Sit Long/EER All Average Accuracy Experiment result NCC with feature.xlsx
+++ b/New Dataset HistogramxFeature/Experiment result NCC with feature/Sit Long/EER All Average Accuracy Experiment result NCC with feature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab\Mobile Authentication\New Dataset HistogramxFeature\Experiment result NCC with feature\Sit Long\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C3005D-5EFF-4CC9-945D-F548594408C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2470409-178B-4DA0-BBA5-7B55ED046C64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" activeTab="1" xr2:uid="{BE8068D7-38F7-44B2-8BFD-3D2F887A34F7}"/>
   </bookViews>
@@ -392,7 +392,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.79396899224806194</v>
+        <v>0.752</v>
       </c>
     </row>
   </sheetData>
